--- a/data/trans_orig/P04B3_3_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P04B3_3_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>34950</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>24668</v>
+        <v>23104</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>51451</v>
+        <v>47918</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07020728755903788</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04955368414832705</v>
+        <v>0.04641163395303085</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1033562143123719</v>
+        <v>0.0962594176325532</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>35</v>
@@ -762,19 +762,19 @@
         <v>25173</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>18114</v>
+        <v>18009</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>36073</v>
+        <v>35924</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04036861654554477</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02904919271916298</v>
+        <v>0.0288794374516131</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05784750444855036</v>
+        <v>0.05760849952424762</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>65</v>
@@ -783,19 +783,19 @@
         <v>60123</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>46230</v>
+        <v>46387</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>78871</v>
+        <v>76772</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05361459222205411</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04122601388433792</v>
+        <v>0.0413661982641997</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07033340363350829</v>
+        <v>0.06846214667829803</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>104114</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>87416</v>
+        <v>83346</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>128422</v>
+        <v>124718</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2091453251836463</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1756020943916089</v>
+        <v>0.1674271866822326</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2579766308030588</v>
+        <v>0.2505367918852386</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>142</v>
@@ -833,19 +833,19 @@
         <v>106621</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>90848</v>
+        <v>90500</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>125692</v>
+        <v>125305</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1709823797380431</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1456883695745263</v>
+        <v>0.1451293933827789</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2015654057733889</v>
+        <v>0.2009453112180171</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>238</v>
@@ -854,19 +854,19 @@
         <v>210735</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>184906</v>
+        <v>185303</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>237852</v>
+        <v>239261</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.1879236653230419</v>
+        <v>0.187923665323042</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1648904281649799</v>
+        <v>0.1652450978703801</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2121053131896984</v>
+        <v>0.21336189655194</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>358742</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>334258</v>
+        <v>335653</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>377155</v>
+        <v>379629</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.7206473872573158</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6714644112721095</v>
+        <v>0.6742665933968752</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7576365271062221</v>
+        <v>0.7626063889770931</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>684</v>
@@ -904,19 +904,19 @@
         <v>491786</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>471161</v>
+        <v>471293</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>508804</v>
+        <v>510469</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.788649003716412</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.755574072182517</v>
+        <v>0.7557866352287759</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.815940284930562</v>
+        <v>0.8186110667939602</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1012</v>
@@ -925,19 +925,19 @@
         <v>850528</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>821268</v>
+        <v>820169</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>877720</v>
+        <v>879438</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.7584617424549039</v>
+        <v>0.7584617424549041</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7323696775077435</v>
+        <v>0.7313889454163431</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7827103720394518</v>
+        <v>0.7842426666486144</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>13505</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7707</v>
+        <v>7818</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>23058</v>
+        <v>22869</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01406593445526203</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.008027420471236574</v>
+        <v>0.008142997053901301</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02401530131100061</v>
+        <v>0.02381889068604791</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>23</v>
@@ -1050,19 +1050,19 @@
         <v>14606</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>9252</v>
+        <v>9032</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>22656</v>
+        <v>23078</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01309770191865259</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.008296300966903765</v>
+        <v>0.008099493726183805</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02031651605297747</v>
+        <v>0.02069501841844877</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>38</v>
@@ -1071,19 +1071,19 @@
         <v>28111</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>20084</v>
+        <v>20541</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>39379</v>
+        <v>39791</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01354565824721115</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.009677903963711309</v>
+        <v>0.009897924042330215</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01897515252208483</v>
+        <v>0.01917375391602165</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>95442</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>75959</v>
+        <v>76359</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>119908</v>
+        <v>119678</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.0994046463229514</v>
+        <v>0.09940464632295141</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07911261261591759</v>
+        <v>0.07952977171397206</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.12488585937831</v>
+        <v>0.1246468796528929</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>170</v>
@@ -1121,19 +1121,19 @@
         <v>123980</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>106441</v>
+        <v>106836</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>144753</v>
+        <v>144540</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.111178051085336</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.09545076389529229</v>
+        <v>0.09580458603351477</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1298065330464827</v>
+        <v>0.1296152243384076</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>260</v>
@@ -1142,19 +1142,19 @@
         <v>219422</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>191214</v>
+        <v>193489</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>249605</v>
+        <v>248594</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.105731042259894</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.09213889990734116</v>
+        <v>0.09323504753020508</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1202753308874049</v>
+        <v>0.1197881524732945</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>851190</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>824948</v>
+        <v>825798</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>872033</v>
+        <v>872583</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.8865294192217867</v>
+        <v>0.8865294192217866</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8591983845277857</v>
+        <v>0.8600840154233335</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.908238549223375</v>
+        <v>0.9088108949761674</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1413</v>
@@ -1192,19 +1192,19 @@
         <v>976560</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>955101</v>
+        <v>953577</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>995319</v>
+        <v>994428</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8757242469960115</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8564818902261503</v>
+        <v>0.8551150766536233</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8925465655341132</v>
+        <v>0.8917478301372734</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2218</v>
@@ -1213,19 +1213,19 @@
         <v>1827749</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1797176</v>
+        <v>1799359</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1857463</v>
+        <v>1856575</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.8807232994928947</v>
+        <v>0.8807232994928949</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8659911288338261</v>
+        <v>0.8670433532039361</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8950412041570611</v>
+        <v>0.8946135653480379</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>6744</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2371</v>
+        <v>2222</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>18413</v>
+        <v>20226</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.006444848224596559</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.002265679244985395</v>
+        <v>0.002123767983275642</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01759558351700055</v>
+        <v>0.01932771947460066</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>10</v>
@@ -1338,19 +1338,19 @@
         <v>7745</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3788</v>
+        <v>4127</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>13325</v>
+        <v>14391</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.007404155910104036</v>
+        <v>0.007404155910104037</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.003621029082647117</v>
+        <v>0.003945056805042859</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.01273853546666416</v>
+        <v>0.01375698984170176</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>15</v>
@@ -1359,19 +1359,19 @@
         <v>14490</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>8221</v>
+        <v>8095</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>27641</v>
+        <v>27484</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.00692440978137749</v>
+        <v>0.006924409781377489</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.003928797702455594</v>
+        <v>0.003868342017026567</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.01320936721976568</v>
+        <v>0.01313395631174334</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>57662</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>45011</v>
+        <v>44636</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>72264</v>
+        <v>73081</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05510114186309864</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04301228333585717</v>
+        <v>0.04265328662062521</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06905443333747584</v>
+        <v>0.06983487459637412</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>84</v>
@@ -1409,19 +1409,19 @@
         <v>68239</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>54834</v>
+        <v>54690</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>84695</v>
+        <v>84858</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0652336537522596</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05241910991464649</v>
+        <v>0.05228132703477782</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08096445019646388</v>
+        <v>0.08111987124541728</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>149</v>
@@ -1430,19 +1430,19 @@
         <v>125902</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>108377</v>
+        <v>108055</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>150289</v>
+        <v>149523</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06016642305397828</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05179180895637101</v>
+        <v>0.05163801745739836</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07182069096504565</v>
+        <v>0.07145492540611573</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>982072</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>964825</v>
+        <v>963689</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>995623</v>
+        <v>995776</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9384540099123048</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9219727525518456</v>
+        <v>0.9208873760041842</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.951403124867208</v>
+        <v>0.9515490883570512</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1420</v>
@@ -1480,19 +1480,19 @@
         <v>970092</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>953919</v>
+        <v>952502</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>984750</v>
+        <v>983961</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9273621903376363</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9119011330965927</v>
+        <v>0.9105467385325283</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9413745721051483</v>
+        <v>0.9406203283284588</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2379</v>
@@ -1501,19 +1501,19 @@
         <v>1952165</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1927039</v>
+        <v>1927014</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1971255</v>
+        <v>1971590</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9329091671646442</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9209018894679594</v>
+        <v>0.9208899332470001</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9420323027756449</v>
+        <v>0.9421924485989803</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>4898</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1602</v>
+        <v>1332</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13882</v>
+        <v>12708</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.00501892804232213</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001641433181725697</v>
+        <v>0.001364725661917932</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01422475032015463</v>
+        <v>0.01302119235235792</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>13</v>
@@ -1626,19 +1626,19 @@
         <v>10096</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5284</v>
+        <v>5648</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18132</v>
+        <v>17544</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01109843655963592</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.005808872728912545</v>
+        <v>0.006209334796505689</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01993312254709866</v>
+        <v>0.01928601751888522</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>17</v>
@@ -1647,19 +1647,19 @@
         <v>14994</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8718</v>
+        <v>8764</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>24967</v>
+        <v>23688</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.007951849412127895</v>
+        <v>0.007951849412127893</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004623257232112867</v>
+        <v>0.004648050829761389</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01324099247353048</v>
+        <v>0.01256240479911429</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>32626</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>21133</v>
+        <v>21729</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>48143</v>
+        <v>48815</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.03343093679773652</v>
+        <v>0.03343093679773651</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02165380380003287</v>
+        <v>0.02226491054842908</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04933065293794621</v>
+        <v>0.05001903204257848</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>33</v>
@@ -1697,19 +1697,19 @@
         <v>27394</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>18728</v>
+        <v>19016</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>38523</v>
+        <v>39206</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03011470718146062</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02058823994250564</v>
+        <v>0.02090464599628791</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04234856106609519</v>
+        <v>0.04310002699100712</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>62</v>
@@ -1718,19 +1718,19 @@
         <v>60020</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>45192</v>
+        <v>46070</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>78437</v>
+        <v>80201</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03183109683023601</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02396709232109329</v>
+        <v>0.02443254694019087</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04159822521340148</v>
+        <v>0.04253360599335367</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>938405</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>921366</v>
+        <v>921072</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>949485</v>
+        <v>949544</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.9615501351599414</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9440912373858977</v>
+        <v>0.9437898149431067</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.9729040919422483</v>
+        <v>0.9729638263392533</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1277</v>
@@ -1768,19 +1768,19 @@
         <v>872170</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>859179</v>
+        <v>858922</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>882999</v>
+        <v>882201</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9587868562589035</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.9445061676430249</v>
+        <v>0.94422314878861</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9706914800000104</v>
+        <v>0.9698136116400522</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>2191</v>
@@ -1789,19 +1789,19 @@
         <v>1810575</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1790196</v>
+        <v>1787765</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1826400</v>
+        <v>1826649</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.9602170537576362</v>
+        <v>0.9602170537576361</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9494095637790692</v>
+        <v>0.9481200850192747</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9686098875211356</v>
+        <v>0.9687416685768021</v>
       </c>
     </row>
     <row r="19">
@@ -1893,19 +1893,19 @@
         <v>60097</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>44644</v>
+        <v>45354</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>79860</v>
+        <v>81622</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.01726759765621473</v>
+        <v>0.01726759765621472</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0128273391609905</v>
+        <v>0.01303143270819741</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02294605537362418</v>
+        <v>0.02345210897229468</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>81</v>
@@ -1914,19 +1914,19 @@
         <v>57620</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>45800</v>
+        <v>45623</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>72662</v>
+        <v>72690</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0155963252998609</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01239688273942568</v>
+        <v>0.01234892237931024</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01966775605182067</v>
+        <v>0.01967542574178162</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>135</v>
@@ -1935,19 +1935,19 @@
         <v>117717</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>98246</v>
+        <v>97956</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>141570</v>
+        <v>141791</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01640702434589555</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0136931820268046</v>
+        <v>0.01365279800494104</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01973157636021815</v>
+        <v>0.01976227392852513</v>
       </c>
     </row>
     <row r="21">
@@ -1964,19 +1964,19 @@
         <v>289844</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>253529</v>
+        <v>255757</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>327531</v>
+        <v>327642</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.08328015209055745</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.07284572923223299</v>
+        <v>0.07348597740864841</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.09410871007289874</v>
+        <v>0.09414052181134393</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>429</v>
@@ -1985,19 +1985,19 @@
         <v>326234</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>292647</v>
+        <v>294705</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>360053</v>
+        <v>358123</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.08830364533953965</v>
+        <v>0.08830364533953963</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.07921239185621137</v>
+        <v>0.07976933148113118</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.09745742853534223</v>
+        <v>0.09693509691176892</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>709</v>
@@ -2006,19 +2006,19 @@
         <v>616079</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>568764</v>
+        <v>570486</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>663846</v>
+        <v>667660</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.08586685449020355</v>
+        <v>0.08586685449020354</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.07927237248354109</v>
+        <v>0.07951226054967406</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.09252449940897453</v>
+        <v>0.0930560761705068</v>
       </c>
     </row>
     <row r="22">
@@ -2035,19 +2035,19 @@
         <v>3130409</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3087193</v>
+        <v>3089656</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3169234</v>
+        <v>3168411</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8994522502532278</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.887035145538799</v>
+        <v>0.8877429567701258</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9106078438691811</v>
+        <v>0.9103712659841124</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4794</v>
@@ -2056,19 +2056,19 @@
         <v>3310608</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3275994</v>
+        <v>3272356</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>3345421</v>
+        <v>3342806</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8961000293605995</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8867309514759519</v>
+        <v>0.8857462033239049</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9055231147171237</v>
+        <v>0.9048152809874616</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>7800</v>
@@ -2077,19 +2077,19 @@
         <v>6441016</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6386089</v>
+        <v>6389155</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6494155</v>
+        <v>6492713</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.8977261211639009</v>
+        <v>0.8977261211639008</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8900705677147575</v>
+        <v>0.8904979158176705</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9051324674064462</v>
+        <v>0.9049314678129751</v>
       </c>
     </row>
     <row r="23">
